--- a/User Stories/Project tracker2.xlsx
+++ b/User Stories/Project tracker2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\cmsc-128\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\cmsc128\User Stories\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -28,10 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
-  <si>
-    <t>Project</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>Employee 1</t>
   </si>
@@ -81,18 +78,9 @@
     <t>Prototype 2 User Stories</t>
   </si>
   <si>
-    <t>Allow deletion of old student information</t>
-  </si>
-  <si>
     <t>Add student registration status</t>
   </si>
   <si>
-    <t>Allow test addition at test maker page</t>
-  </si>
-  <si>
-    <t>Allow test editing</t>
-  </si>
-  <si>
     <t>Add admin privileges</t>
   </si>
   <si>
@@ -100,6 +88,27 @@
   </si>
   <si>
     <t>Feb. 22, 2018</t>
+  </si>
+  <si>
+    <t>Add print functionality</t>
+  </si>
+  <si>
+    <t>Task</t>
+  </si>
+  <si>
+    <t>Story</t>
+  </si>
+  <si>
+    <t>Add print functionality for student info</t>
+  </si>
+  <si>
+    <t>Date Accomplished</t>
+  </si>
+  <si>
+    <t>Add student registraction status</t>
+  </si>
+  <si>
+    <t>Setup authentication</t>
   </si>
 </sst>
 </file>
@@ -338,7 +347,7 @@
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -360,7 +369,16 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="5">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="5" applyBorder="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="5" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="5" applyBorder="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="6" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="8" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
@@ -382,7 +400,19 @@
     <cellStyle name="Text" xfId="5"/>
     <cellStyle name="Title" xfId="9" builtinId="15" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="7">
+    <dxf>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="1" hidden="0"/>
+    </dxf>
     <dxf>
       <border outline="0">
         <bottom style="thin">
@@ -423,8 +453,8 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="Custom Table Style" defaultPivotStyle="PivotStyleMedium2">
     <tableStyle name="Custom Table Style" pivot="0" count="2">
-      <tableStyleElement type="wholeTable" dxfId="2"/>
-      <tableStyleElement type="headerRow" dxfId="1"/>
+      <tableStyleElement type="wholeTable" dxfId="6"/>
+      <tableStyleElement type="headerRow" dxfId="5"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -513,10 +543,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="ProjectTracker" displayName="ProjectTracker" ref="B3:B9" totalsRowShown="0" tableBorderDxfId="0" headerRowCellStyle="Heading 2">
-  <autoFilter ref="B3:B9"/>
-  <tableColumns count="1">
-    <tableColumn id="1" name="Project" dataCellStyle="Text"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="ProjectTracker" displayName="ProjectTracker" ref="B3:D7" totalsRowShown="0" dataDxfId="2" tableBorderDxfId="4" headerRowCellStyle="Heading 2" dataCellStyle="Text">
+  <autoFilter ref="B3:D7"/>
+  <tableColumns count="3">
+    <tableColumn id="1" name="Story" dataDxfId="3" dataCellStyle="Text"/>
+    <tableColumn id="2" name="Task" dataDxfId="1" dataCellStyle="Text"/>
+    <tableColumn id="3" name="Date Accomplished" dataDxfId="0" dataCellStyle="Text"/>
   </tableColumns>
   <tableStyleInfo name="Custom Table Style" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -774,64 +806,78 @@
     <tabColor theme="9"/>
     <pageSetUpPr autoPageBreaks="0" fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:B9"/>
+  <dimension ref="B1:D7"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.58203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="47.83203125" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="2.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="47.875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="31.875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="24.625" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:2" ht="65.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:4" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B1" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="2:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" ht="54.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="8"/>
+    </row>
+    <row r="5" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="8" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="2:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="2:2" ht="55" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="7" t="s">
+      <c r="D5" s="10">
+        <v>43153</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="7"/>
+    </row>
+    <row r="7" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="7"/>
+      <c r="C7" s="7" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="5" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="7" t="s">
-        <v>22</v>
-      </c>
+      <c r="D7" s="7"/>
     </row>
   </sheetData>
   <dataValidations count="2">
@@ -863,74 +909,74 @@
       <selection pane="bottomLeft" activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.58203125" customWidth="1"/>
-    <col min="2" max="3" width="25.58203125" customWidth="1"/>
-    <col min="4" max="4" width="2.58203125" customWidth="1"/>
+    <col min="1" max="1" width="2.625" customWidth="1"/>
+    <col min="2" max="3" width="25.625" customWidth="1"/>
+    <col min="4" max="4" width="2.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" ht="65.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:3" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B1" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="2:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="2:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="2:3" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="2:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="2:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="2:3" ht="50.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="3" t="s">
+      <c r="C5" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="6" t="s">
+    <row r="10" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C10" s="6" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/User Stories/Project tracker2.xlsx
+++ b/User Stories/Project tracker2.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>Employee 1</t>
   </si>
@@ -109,6 +109,12 @@
   </si>
   <si>
     <t>Setup authentication</t>
+  </si>
+  <si>
+    <t>Setup admin page</t>
+  </si>
+  <si>
+    <t>Date Requested</t>
   </si>
 </sst>
 </file>
@@ -400,10 +406,7 @@
     <cellStyle name="Text" xfId="5"/>
     <cellStyle name="Title" xfId="9" builtinId="15" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="7">
-    <dxf>
-      <protection locked="1" hidden="0"/>
-    </dxf>
+  <dxfs count="8">
     <dxf>
       <protection locked="1" hidden="0"/>
     </dxf>
@@ -419,6 +422,12 @@
           <color theme="9"/>
         </bottom>
       </border>
+    </dxf>
+    <dxf>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
       <font>
@@ -453,8 +462,8 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="Custom Table Style" defaultPivotStyle="PivotStyleMedium2">
     <tableStyle name="Custom Table Style" pivot="0" count="2">
-      <tableStyleElement type="wholeTable" dxfId="6"/>
-      <tableStyleElement type="headerRow" dxfId="5"/>
+      <tableStyleElement type="wholeTable" dxfId="7"/>
+      <tableStyleElement type="headerRow" dxfId="6"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -543,12 +552,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="ProjectTracker" displayName="ProjectTracker" ref="B3:D7" totalsRowShown="0" dataDxfId="2" tableBorderDxfId="4" headerRowCellStyle="Heading 2" dataCellStyle="Text">
-  <autoFilter ref="B3:D7"/>
-  <tableColumns count="3">
-    <tableColumn id="1" name="Story" dataDxfId="3" dataCellStyle="Text"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="ProjectTracker" displayName="ProjectTracker" ref="B3:E8" totalsRowShown="0" dataDxfId="4" tableBorderDxfId="3" headerRowCellStyle="Heading 2" dataCellStyle="Text">
+  <autoFilter ref="B3:E8"/>
+  <tableColumns count="4">
+    <tableColumn id="1" name="Story" dataDxfId="2" dataCellStyle="Text"/>
     <tableColumn id="2" name="Task" dataDxfId="1" dataCellStyle="Text"/>
-    <tableColumn id="3" name="Date Accomplished" dataDxfId="0" dataCellStyle="Text"/>
+    <tableColumn id="3" name="Date Requested" dataDxfId="0" dataCellStyle="Text"/>
+    <tableColumn id="4" name="Date Accomplished" dataDxfId="5" dataCellStyle="Text"/>
   </tableColumns>
   <tableStyleInfo name="Custom Table Style" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -806,11 +816,11 @@
     <tabColor theme="9"/>
     <pageSetUpPr autoPageBreaks="0" fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:D7"/>
+  <dimension ref="B1:E8"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
+      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -819,20 +829,21 @@
     <col min="2" max="2" width="47.875" style="1" customWidth="1"/>
     <col min="3" max="3" width="31.875" style="1" customWidth="1"/>
     <col min="4" max="4" width="24.625" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="1"/>
+    <col min="5" max="5" width="19.125" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:5" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B1" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="2:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="2:4" ht="54.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:5" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
         <v>22</v>
       </c>
@@ -840,19 +851,25 @@
         <v>21</v>
       </c>
       <c r="D3" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="9" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="7" t="s">
         <v>23</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="8"/>
-    </row>
-    <row r="5" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D4" s="10">
+        <v>43153</v>
+      </c>
+      <c r="E4" s="8"/>
+    </row>
+    <row r="5" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="7" t="s">
         <v>25</v>
       </c>
@@ -862,22 +879,41 @@
       <c r="D5" s="10">
         <v>43153</v>
       </c>
-    </row>
-    <row r="6" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E5" s="10">
+        <v>43153</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="8" t="s">
         <v>18</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="7"/>
-    </row>
-    <row r="7" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="7"/>
-      <c r="C7" s="7" t="s">
+      <c r="D6" s="10">
+        <v>43153</v>
+      </c>
+      <c r="E6" s="7"/>
+    </row>
+    <row r="7" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="8"/>
+      <c r="C7" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="10">
+        <v>43153</v>
+      </c>
+      <c r="E7" s="7"/>
+    </row>
+    <row r="8" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="7"/>
+      <c r="C8" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="7"/>
+      <c r="D8" s="10">
+        <v>43153</v>
+      </c>
+      <c r="E8" s="7"/>
     </row>
   </sheetData>
   <dataValidations count="2">
